--- a/public/br2Faktura.xlsx
+++ b/public/br2Faktura.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Faktura</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +464,14 @@
       </c>
       <c r="B9">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
